--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-organization.xlsx
@@ -349,7 +349,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -361,7 +361,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -407,7 +407,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -1118,7 +1118,7 @@
     <t>work | temp | old | mobile - 連絡先の用途等 【JP_Patient.telecomを参照。】homeは使用しないこと。</t>
   </si>
   <si>
-    <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
+    <t>「接点の目的を特定する。」</t>
   </si>
   <si>
     <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。  
@@ -1131,7 +1131,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>「接点の使用。」(Setten no shiyō.)</t>
+    <t>「接点の使用。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
